--- a/5sem/11/tables/V0.xlsx
+++ b/5sem/11/tables/V0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="3220" windowWidth="26160" windowHeight="13060" tabRatio="500"/>
+    <workbookView xWindow="14720" yWindow="1420" windowWidth="26160" windowHeight="13060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>№</t>
   </si>
@@ -39,19 +39,36 @@
   </si>
   <si>
     <t>deg</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,8 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -353,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -364,134 +383,162 @@
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2174</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5944</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1695827730000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.38100099999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.24851500000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2235</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6074</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.101745143</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.35507899999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.26361899999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>2412</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6506</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.8957885029999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.44559700000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.23077800000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.9E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2174</v>
-      </c>
-      <c r="C2">
-        <v>5944</v>
-      </c>
-      <c r="D2">
-        <v>0.79235999999999995</v>
-      </c>
-      <c r="E2">
-        <f>10^(-15)*(2*3.14*3*10^8)/(C2*10^(-10))</f>
-        <v>3.169582772543742</v>
-      </c>
-      <c r="F2">
-        <f>0.0749332*D2</f>
-        <v>5.9374070352E-2</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2318</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6266</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0067028410000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.41289199999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.23874100000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2235</v>
-      </c>
-      <c r="C3">
-        <v>6074</v>
-      </c>
-      <c r="D3">
-        <v>0.74242300000000006</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">10^(-15)*(2*3.14*3*10^8)/(C3*10^(-10))</f>
-        <v>3.1017451432334542</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="1">0.0749332*D3</f>
-        <v>5.5632131143600008E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2412</v>
-      </c>
-      <c r="C4">
-        <v>6506</v>
-      </c>
-      <c r="D4">
-        <v>0.51790800000000004</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.8957885029203809</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>3.8808503745600006E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2318</v>
-      </c>
-      <c r="C5">
-        <v>6266</v>
-      </c>
-      <c r="D5">
-        <v>0.57821800000000001</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>3.006702840727737</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>4.3327725037600004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1872</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5400</v>
       </c>
-      <c r="D6">
-        <v>0.82575900000000002</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>3.4888888888888889</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>6.1876764298800006E-2</v>
+      <c r="D6" s="1">
+        <v>3.488888889</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.26206400000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.21640200000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.2E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/5sem/11/tables/V0.xlsx
+++ b/5sem/11/tables/V0.xlsx
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -383,7 +383,7 @@
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +407,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -432,8 +432,16 @@
       <c r="H2" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>E2*0.05</f>
+        <v>1.9050049999999999E-2</v>
+      </c>
+      <c r="J2">
+        <f>F2*0.05</f>
+        <v>1.2425750000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -458,8 +466,16 @@
       <c r="H3" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="0">E3*0.05</f>
+        <v>1.7753950000000001E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="1">F3*0.05</f>
+        <v>1.318095E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -484,8 +500,16 @@
       <c r="H4" s="1">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.2279850000000004E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>1.1538900000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -510,8 +534,16 @@
       <c r="H5" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2.0644599999999999E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.1937050000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -535,6 +567,26 @@
       </c>
       <c r="H6" s="1">
         <v>6.2E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.3103200000000002E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.0820100000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f>0.07/1.4</f>
+        <v>5.000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>SQRT(0.05^2*2)</f>
+        <v>7.0710678118654766E-2</v>
       </c>
     </row>
   </sheetData>
